--- a/app/static/generated_excel_files/2020-8_ХТМУ - ВУЗ%911-9-34_1%invoice_reference.xlsx
+++ b/app/static/generated_excel_files/2020-8_ХТМУ - ВУЗ%911-9-34_1%invoice_reference.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName localSheetId="0" name="_xlnm.Print_Titles">'Sheet1'!28:29</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sheet1'!$A$1:$J$35</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'Sheet1'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -598,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,14 +641,14 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>ПЕРИОД: August/2020</t>
+          <t>ПЕРИОД: September/2020</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>БРОЙ ОБЕКТИ: 6</t>
+          <t>БРОЙ ОБЕКТИ: 7</t>
         </is>
       </c>
     </row>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="E12" s="7" t="n">
-        <v>45.819</v>
+        <v>56.412045</v>
       </c>
       <c r="F12" s="8" t="n">
         <v>113.83</v>
       </c>
       <c r="G12" s="8" t="n">
-        <v>5215.57677</v>
+        <v>6421.38308235</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E13" s="9" t="n">
-        <v>45.819</v>
+        <v>56.412045</v>
       </c>
       <c r="G13" s="8" t="n">
         <v>81.37</v>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="E14" s="9" t="n">
-        <v>45.819</v>
+        <v>56.412045</v>
       </c>
       <c r="F14" s="10" t="n">
         <v>21.47</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>983.73</v>
+        <v>1211.17</v>
       </c>
     </row>
     <row r="15">
@@ -726,13 +726,13 @@
         </is>
       </c>
       <c r="E15" s="9" t="n">
-        <v>45.819</v>
+        <v>56.412045</v>
       </c>
       <c r="F15" s="10" t="n">
         <v>2</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>91.64</v>
+        <v>112.82</v>
       </c>
     </row>
     <row r="16">
@@ -745,11 +745,11 @@
       <c r="C16" s="11" t="n"/>
       <c r="D16" s="11" t="n"/>
       <c r="E16" s="12" t="n">
-        <v>45.819</v>
+        <v>56.412045</v>
       </c>
       <c r="F16" s="11" t="n"/>
       <c r="G16" s="13" t="n">
-        <v>6372.31677</v>
+        <v>7826.74308235</v>
       </c>
     </row>
     <row r="17"/>
@@ -765,7 +765,7 @@
       <c r="E18" s="11" t="n"/>
       <c r="F18" s="11" t="n"/>
       <c r="G18" s="13" t="n">
-        <v>1274.46</v>
+        <v>1565.35</v>
       </c>
     </row>
     <row r="19"/>
@@ -781,7 +781,7 @@
       <c r="E20" s="15" t="n"/>
       <c r="F20" s="15" t="n"/>
       <c r="G20" s="16" t="n">
-        <v>7646.78</v>
+        <v>9392.09</v>
       </c>
     </row>
     <row r="21"/>
@@ -875,19 +875,19 @@
         <v>180</v>
       </c>
       <c r="E30" s="21" t="n">
-        <v>20.49</v>
+        <v>20.489</v>
       </c>
       <c r="F30" s="21" t="n">
         <v>0.36</v>
       </c>
       <c r="G30" s="21" t="n">
-        <v>3.86</v>
+        <v>3.865</v>
       </c>
       <c r="H30" s="21" t="n">
         <v>81.37</v>
       </c>
       <c r="I30" s="21" t="n">
-        <v>106.08</v>
+        <v>106.084</v>
       </c>
     </row>
     <row r="31">
@@ -908,19 +908,17 @@
         <v>17069</v>
       </c>
       <c r="E31" s="21" t="n">
-        <v>1942.96</v>
+        <v>1942.964</v>
       </c>
       <c r="F31" s="21" t="n">
-        <v>34.14</v>
+        <v>34.138</v>
       </c>
       <c r="G31" s="21" t="n">
-        <v>366.47</v>
-      </c>
-      <c r="H31" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>366.471</v>
+      </c>
+      <c r="H31" s="21" t="n"/>
       <c r="I31" s="21" t="n">
-        <v>2343.57</v>
+        <v/>
       </c>
     </row>
     <row r="32">
@@ -944,16 +942,14 @@
         <v>1275.92</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>22.42</v>
+        <v>22.418</v>
       </c>
       <c r="G32" s="21" t="n">
-        <v>240.66</v>
-      </c>
-      <c r="H32" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>240.657</v>
+      </c>
+      <c r="H32" s="21" t="n"/>
       <c r="I32" s="21" t="n">
-        <v>1539</v>
+        <v/>
       </c>
     </row>
     <row r="33">
@@ -982,11 +978,9 @@
       <c r="G33" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H33" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="H33" s="21" t="n"/>
       <c r="I33" s="21" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="34">
@@ -1007,19 +1001,17 @@
         <v>7196</v>
       </c>
       <c r="E34" s="21" t="n">
-        <v>819.12</v>
+        <v>819.121</v>
       </c>
       <c r="F34" s="21" t="n">
-        <v>14.39</v>
+        <v>14.392</v>
       </c>
       <c r="G34" s="21" t="n">
-        <v>154.5</v>
-      </c>
-      <c r="H34" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>154.498</v>
+      </c>
+      <c r="H34" s="21" t="n"/>
       <c r="I34" s="21" t="n">
-        <v>988.01</v>
+        <v/>
       </c>
     </row>
     <row r="35">
@@ -1040,19 +1032,48 @@
         <v>10165</v>
       </c>
       <c r="E35" s="21" t="n">
-        <v>1157.08</v>
+        <v>1157.082</v>
       </c>
       <c r="F35" s="21" t="n">
         <v>20.33</v>
       </c>
       <c r="G35" s="21" t="n">
-        <v>218.24</v>
-      </c>
-      <c r="H35" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>218.243</v>
+      </c>
+      <c r="H35" s="21" t="n"/>
       <c r="I35" s="21" t="n">
-        <v>1395.65</v>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" s="19" t="inlineStr">
+        <is>
+          <t>BG5521900823000000000000002733610</t>
+        </is>
+      </c>
+      <c r="C36" s="19" t="inlineStr">
+        <is>
+          <t>бунгала „несебър”</t>
+        </is>
+      </c>
+      <c r="D36" s="20" t="n">
+        <v>10593.045</v>
+      </c>
+      <c r="E36" s="21" t="n">
+        <v>1205.806</v>
+      </c>
+      <c r="F36" s="21" t="n">
+        <v>21.186</v>
+      </c>
+      <c r="G36" s="21" t="n">
+        <v>227.433</v>
+      </c>
+      <c r="H36" s="21" t="n"/>
+      <c r="I36" s="21" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1784,6 +1805,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H8" s="2" t="n">
         <v>44064</v>
       </c>
@@ -1848,6 +1874,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H9" s="2" t="n">
         <v>44064</v>
       </c>
@@ -1912,6 +1943,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H10" s="2" t="n">
         <v>44064</v>
       </c>
@@ -1976,6 +2012,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H11" s="2" t="n">
         <v>44064</v>
       </c>
@@ -2040,6 +2081,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H12" s="2" t="n">
         <v>44094</v>
       </c>
@@ -2104,6 +2150,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H13" s="2" t="n">
         <v>44094</v>
       </c>
@@ -2168,6 +2219,11 @@
           <t>32Z1030022936848</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>38582295</t>
+        </is>
+      </c>
       <c r="H14" s="2" t="n">
         <v>44094</v>
       </c>
@@ -2230,6 +2286,11 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>32Z1030022936848</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>38582295</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
